--- a/biology/Médecine/Syndrome_pyramidal/Syndrome_pyramidal.xlsx
+++ b/biology/Médecine/Syndrome_pyramidal/Syndrome_pyramidal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome pyramidal est l'ensemble des symptômes et signes cliniques dus à une atteinte de la partie centrale de la voie pyramidale (support de la motricité volontaire). Ce syndrome présente généralement une faiblesse motrice pouvant gêner les activités courantes telles que la marche, une claudication motrice intermittente, des sensations de raideur, parfois des troubles de la phonation et de la déglutition, plus rarement des mictions impérieuses.
 Lorsqu'au contraire, il y a une atteinte du neurone périphérique, on ne parle pas de syndrome pyramidal. C'est le cas par exemple d'une paraplégie périphérique.
@@ -512,7 +524,9 @@
           <t>Signes cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve les signes suivants :
 perte des mouvements fins volontaires ;
@@ -556,8 +570,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lésions hémisphériques
-Syndrome unilatéral :
+          <t>Lésions hémisphériques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Syndrome unilatéral :
 AVC ischémique ;
 AVC hémorragique thrombophlébite cérébrale (syndrome à bascule) ;
 tumeur maligne ;
@@ -572,9 +591,43 @@
 tumeurs multiples (métastases, lymphome) ;
 abcès multiples ;
 tumeur médiane (rare) ;
-hémorragie méningée (syndrome réflexe).
-Lésions du tronc cérébral
-Syndrome unilatéral :
+hémorragie méningée (syndrome réflexe).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_pyramidal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_pyramidal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Diagnostic étiologique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lésions du tronc cérébral</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Syndrome unilatéral :
 AVC ischémique :
 bulbaire paramédian (respect de la face),
 protubérantiel paramédian (exemple : Foville),
@@ -584,9 +637,43 @@
 ischémie : locked-in syndrome, lacunes multiples ;
 tumeur intraparenchymateuse (exemple : astrocytome) ou extraparenchymateuse (tumeur de l’angle ponto-cérébelleux) ;
 hématome intraparenchymateux ;
-malformation (malformation d'Arnold-Chiari).
-Lésions médullaires
-Syndrome unilatéral (±BROWN-SEQUARD) :
+malformation (malformation d'Arnold-Chiari).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_pyramidal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_pyramidal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diagnostic étiologique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lésions médullaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Syndrome unilatéral (±BROWN-SEQUARD) :
 compression (plutôt extramédullaire tumorale) ;
 traumatisme (blessure) : rare.
 Syndrome bilatéral :
@@ -597,11 +684,80 @@
 infectieuse (myélopathie vacuolaire du VIH, paraplégie spastique tropicale de l’HTL VI) ;
 carentielle (vitamine B12 : sclérose combinée) ;
 myélite transverse ;
-Iatrogène (hématome intrarachidien par complication des anticoagulants, chimiothérapie intrathécale).
-Pathologies dégénératives
-SLA : combinaison d’une atteinte des faisceaux pyramidaux donnant un syndrome pyramidal et d’une atteinte des motoneurones.
-Autres pathologies
-Crise d’épilepsie généralisée (au décours).
+Iatrogène (hématome intrarachidien par complication des anticoagulants, chimiothérapie intrathécale).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_pyramidal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_pyramidal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic étiologique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pathologies dégénératives</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SLA : combinaison d’une atteinte des faisceaux pyramidaux donnant un syndrome pyramidal et d’une atteinte des motoneurones.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_pyramidal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_pyramidal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diagnostic étiologique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres pathologies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crise d’épilepsie généralisée (au décours).
 Hypoglycémie.
 Encéphalopathie toxique.
 Syndrome extrapyramidal.
